--- a/Data/final_tables/supplementary_file_2_BARD1_all_reagents.xlsx
+++ b/Data/final_tables/supplementary_file_2_BARD1_all_reagents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/final_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A6E5C5-1CBD-304C-8F97-00A54430824C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B5C1CD-CB2C-D847-8988-8190E236C6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10560" yWindow="-28180" windowWidth="51200" windowHeight="28180" activeTab="5" xr2:uid="{D2A65EDD-B858-E447-8FDB-B7AA24207239}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16100" activeTab="5" xr2:uid="{D2A65EDD-B858-E447-8FDB-B7AA24207239}"/>
   </bookViews>
   <sheets>
     <sheet name="all_reagents" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="1226">
   <si>
     <t>Oligo Name</t>
   </si>
@@ -5410,6 +5410,9 @@
   </si>
   <si>
     <t>BARD1_cDNA_RT</t>
+  </si>
+  <si>
+    <t>GATTCAAAGACAAATATGAATGACTCT</t>
   </si>
 </sst>
 </file>
@@ -11169,7 +11172,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11197,6 +11200,9 @@
       <c r="B3" s="2" t="s">
         <v>1224</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
